--- a/MachineLearningModels/Glucose_open_fermentation.xlsx
+++ b/MachineLearningModels/Glucose_open_fermentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\PycharmProjects\Alquimia\MachineLearningModels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5326DCF0-3B7F-4FDA-B95D-1E749D1A27D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA42362B-074D-4436-8AF7-F0C5BF7B0E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculations_inputs" sheetId="1" r:id="rId1"/>
@@ -623,18 +623,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="23.453125" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -7268,19 +7268,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="3" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.90625" customWidth="1"/>
+    <col min="2" max="3" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -7303,7 +7304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1.9017239332605212E-2</v>
       </c>
@@ -17864,12 +17865,12 @@
   <dimension ref="A1:B301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -20291,14 +20292,14 @@
   <dimension ref="A1:C301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
